--- a/data/p2_rm.xlsx
+++ b/data/p2_rm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Proposal /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Proposal /proposal_measures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4DDC78F-B0FC-1D4E-BA34-63107AF35ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8770A8-7FE8-9349-992D-729C4B405BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15260" xr2:uid="{1097245A-DA27-CB42-867C-E8041348FC67}"/>
+    <workbookView xWindow="1020" yWindow="3140" windowWidth="27240" windowHeight="15260" xr2:uid="{1097245A-DA27-CB42-867C-E8041348FC67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
     <t>session</t>
   </si>
   <si>
-    <t>use</t>
+    <t>help</t>
   </si>
   <si>
-    <t>help</t>
+    <t>motivation</t>
   </si>
 </sst>
 </file>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015C90D2-F764-8948-8D6A-97E93B655AB9}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -406,10 +406,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -417,7 +417,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -450,7 +450,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -461,7 +461,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -472,20 +472,9 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
         <v>5</v>
       </c>
     </row>
